--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_23_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_23_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3568039.617004095</v>
+        <v>3565541.365682884</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673428</v>
+        <v>603248.493767344</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7020269.679827894</v>
+        <v>7020269.679827895</v>
       </c>
     </row>
     <row r="11">
@@ -1379,13 +1379,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
         <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687279</v>
+        <v>211.9164927266847</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
@@ -1430,13 +1430,13 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>287.1878041424344</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
         <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247746</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1506,7 +1506,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494236</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -1543,10 +1543,10 @@
         <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145481</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T13" t="n">
         <v>172.5738126575766</v>
@@ -1610,19 +1610,19 @@
         <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231188</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>209.3529512725055</v>
+        <v>13.91332762480589</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T14" t="n">
         <v>156.9428335210276</v>
@@ -1667,10 +1667,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X14" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y14" t="n">
         <v>339.262802037461</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414539</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1765,25 +1765,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C16" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D16" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797658</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G16" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S16" t="n">
         <v>142.7938887128493</v>
@@ -1844,7 +1844,7 @@
         <v>288.3310575773447</v>
       </c>
       <c r="C17" t="n">
-        <v>270.8701076848716</v>
+        <v>224.9230016973048</v>
       </c>
       <c r="D17" t="n">
         <v>260.280257534547</v>
@@ -1859,7 +1859,7 @@
         <v>316.5189415673175</v>
       </c>
       <c r="H17" t="n">
-        <v>154.2578743136182</v>
+        <v>200.2049803011845</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>14.78497770203992</v>
+        <v>14.78497770203995</v>
       </c>
       <c r="T17" t="n">
         <v>109.5151860534842</v>
       </c>
       <c r="U17" t="n">
-        <v>156.592387872766</v>
+        <v>156.5923878727661</v>
       </c>
       <c r="V17" t="n">
         <v>233.349474383999</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85.42919609580137</v>
+        <v>85.4291960958014</v>
       </c>
       <c r="C19" t="n">
-        <v>72.84403701249191</v>
+        <v>72.84403701249194</v>
       </c>
       <c r="D19" t="n">
-        <v>54.21268893207643</v>
+        <v>54.21268893207646</v>
       </c>
       <c r="E19" t="n">
-        <v>52.03117856043325</v>
+        <v>52.03117856043328</v>
       </c>
       <c r="F19" t="n">
-        <v>51.01826393679532</v>
+        <v>51.01826393679535</v>
       </c>
       <c r="G19" t="n">
-        <v>71.6230241728923</v>
+        <v>71.62302417289233</v>
       </c>
       <c r="H19" t="n">
-        <v>50.35223082818486</v>
+        <v>50.35223082818489</v>
       </c>
       <c r="I19" t="n">
-        <v>1.949636323702187</v>
+        <v>1.949636323702215</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>260.280257534547</v>
       </c>
       <c r="E20" t="n">
-        <v>241.5804799985595</v>
+        <v>241.580479998558</v>
       </c>
       <c r="F20" t="n">
         <v>312.4732616555755</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>14.78497770203992</v>
+        <v>14.78497770203995</v>
       </c>
       <c r="T20" t="n">
         <v>109.5151860534842</v>
       </c>
       <c r="U20" t="n">
-        <v>156.592387872766</v>
+        <v>156.5923878727661</v>
       </c>
       <c r="V20" t="n">
         <v>233.349474383999</v>
@@ -2175,7 +2175,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851005</v>
       </c>
       <c r="I21" t="n">
         <v>18.81721868247745</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.42919609580137</v>
+        <v>85.4291960958014</v>
       </c>
       <c r="C22" t="n">
-        <v>72.84403701249191</v>
+        <v>72.84403701249194</v>
       </c>
       <c r="D22" t="n">
-        <v>54.21268893207643</v>
+        <v>54.21268893207646</v>
       </c>
       <c r="E22" t="n">
-        <v>52.03117856043325</v>
+        <v>52.03117856043328</v>
       </c>
       <c r="F22" t="n">
-        <v>51.01826393679532</v>
+        <v>51.01826393679535</v>
       </c>
       <c r="G22" t="n">
-        <v>71.6230241728923</v>
+        <v>71.62302417289233</v>
       </c>
       <c r="H22" t="n">
-        <v>50.35223082818486</v>
+        <v>50.35223082818489</v>
       </c>
       <c r="I22" t="n">
-        <v>1.949636323702187</v>
+        <v>1.949636323702215</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>316.5189415673175</v>
       </c>
       <c r="H23" t="n">
-        <v>200.2049803011845</v>
+        <v>154.2578743136159</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>14.78497770203995</v>
       </c>
       <c r="T23" t="n">
-        <v>78.35305776795703</v>
+        <v>109.5151860534842</v>
       </c>
       <c r="U23" t="n">
         <v>156.5923878727661</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.42919609580137</v>
+        <v>85.4291960958014</v>
       </c>
       <c r="C25" t="n">
-        <v>72.84403701249191</v>
+        <v>72.84403701249194</v>
       </c>
       <c r="D25" t="n">
-        <v>54.21268893207643</v>
+        <v>54.21268893207646</v>
       </c>
       <c r="E25" t="n">
-        <v>52.03117856043325</v>
+        <v>52.03117856043328</v>
       </c>
       <c r="F25" t="n">
-        <v>51.01826393679532</v>
+        <v>51.01826393679535</v>
       </c>
       <c r="G25" t="n">
-        <v>71.6230241728923</v>
+        <v>71.62302417289233</v>
       </c>
       <c r="H25" t="n">
-        <v>50.35223082818486</v>
+        <v>50.35223082818489</v>
       </c>
       <c r="I25" t="n">
-        <v>1.949636323702187</v>
+        <v>1.949636323702215</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.3061941959372</v>
+        <v>335.3061941959373</v>
       </c>
       <c r="C26" t="n">
-        <v>317.8452443034642</v>
+        <v>317.8452443034643</v>
       </c>
       <c r="D26" t="n">
-        <v>307.2553941531396</v>
+        <v>307.2553941531397</v>
       </c>
       <c r="E26" t="n">
-        <v>334.5027226047184</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>359.4483982741681</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>362.0376320247061</v>
+        <v>353.8461804169322</v>
       </c>
       <c r="H26" t="n">
         <v>247.1801169197771</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>61.76011432063252</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>156.4903226720768</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>203.5675244913587</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>280.3246110025916</v>
       </c>
       <c r="W26" t="n">
         <v>301.8133212498697</v>
@@ -2621,7 +2621,7 @@
         <v>322.3034532109257</v>
       </c>
       <c r="Y26" t="n">
-        <v>338.8102911885102</v>
+        <v>338.8102911885103</v>
       </c>
     </row>
     <row r="27">
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.4043327143939</v>
+        <v>132.404332714394</v>
       </c>
       <c r="C28" t="n">
         <v>119.8191736310845</v>
@@ -2719,19 +2719,19 @@
         <v>101.187825550669</v>
       </c>
       <c r="E28" t="n">
-        <v>99.00631517902582</v>
+        <v>99.00631517902585</v>
       </c>
       <c r="F28" t="n">
-        <v>97.99340055538789</v>
+        <v>97.99340055538792</v>
       </c>
       <c r="G28" t="n">
         <v>118.5981607914849</v>
       </c>
       <c r="H28" t="n">
-        <v>97.32736744677743</v>
+        <v>97.32736744677746</v>
       </c>
       <c r="I28" t="n">
-        <v>48.92477294229476</v>
+        <v>48.92477294229479</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.50450520250399</v>
+        <v>41.50450520250402</v>
       </c>
       <c r="S28" t="n">
-        <v>142.3413778638985</v>
+        <v>142.3413778638986</v>
       </c>
       <c r="T28" t="n">
-        <v>172.1213018086258</v>
+        <v>172.1213018086259</v>
       </c>
       <c r="U28" t="n">
         <v>238.7841907380695</v>
       </c>
       <c r="V28" t="n">
-        <v>204.7099958562846</v>
+        <v>204.7099958562847</v>
       </c>
       <c r="W28" t="n">
-        <v>239.0953508690476</v>
+        <v>239.0953508690477</v>
       </c>
       <c r="X28" t="n">
         <v>178.2820079214938</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.1570058845514</v>
+        <v>171.1570058845515</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>335.3061941959373</v>
       </c>
       <c r="C29" t="n">
-        <v>317.8452443034643</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>307.2553941531397</v>
@@ -2807,7 +2807,7 @@
         <v>363.4940781859102</v>
       </c>
       <c r="H29" t="n">
-        <v>183.9635564379397</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>61.76011432063257</v>
+        <v>61.76011432063252</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>156.4903226720768</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>203.5675244913587</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>280.3246110025916</v>
       </c>
       <c r="W29" t="n">
         <v>301.8133212498697</v>
       </c>
       <c r="X29" t="n">
-        <v>322.3034532109257</v>
+        <v>183.729795786303</v>
       </c>
       <c r="Y29" t="n">
         <v>338.8102911885103</v>
@@ -2950,25 +2950,25 @@
         <v>132.404332714394</v>
       </c>
       <c r="C31" t="n">
-        <v>119.8191736310846</v>
+        <v>119.8191736310845</v>
       </c>
       <c r="D31" t="n">
-        <v>101.1878255506691</v>
+        <v>101.187825550669</v>
       </c>
       <c r="E31" t="n">
-        <v>99.00631517902589</v>
+        <v>99.00631517902585</v>
       </c>
       <c r="F31" t="n">
-        <v>97.99340055538796</v>
+        <v>97.99340055538792</v>
       </c>
       <c r="G31" t="n">
         <v>118.5981607914849</v>
       </c>
       <c r="H31" t="n">
-        <v>97.3273674467775</v>
+        <v>97.32736744677746</v>
       </c>
       <c r="I31" t="n">
-        <v>48.92477294229483</v>
+        <v>48.92477294229479</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.50450520250405</v>
+        <v>41.50450520250402</v>
       </c>
       <c r="S31" t="n">
         <v>142.3413778638986</v>
@@ -3004,7 +3004,7 @@
         <v>172.1213018086259</v>
       </c>
       <c r="U31" t="n">
-        <v>238.7841907380696</v>
+        <v>238.7841907380695</v>
       </c>
       <c r="V31" t="n">
         <v>204.7099958562847</v>
@@ -3013,7 +3013,7 @@
         <v>239.0953508690477</v>
       </c>
       <c r="X31" t="n">
-        <v>178.2820079214939</v>
+        <v>178.2820079214938</v>
       </c>
       <c r="Y31" t="n">
         <v>171.1570058845515</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>82.14725995383229</v>
+        <v>82.1472599538323</v>
       </c>
       <c r="C34" t="n">
-        <v>69.56210087052283</v>
+        <v>69.56210087052284</v>
       </c>
       <c r="D34" t="n">
-        <v>50.93075279010735</v>
+        <v>50.93075279010736</v>
       </c>
       <c r="E34" t="n">
-        <v>48.74924241846416</v>
+        <v>48.74924241846418</v>
       </c>
       <c r="F34" t="n">
-        <v>47.73632779482624</v>
+        <v>47.73632779482625</v>
       </c>
       <c r="G34" t="n">
-        <v>68.34108803092322</v>
+        <v>68.34108803092323</v>
       </c>
       <c r="H34" t="n">
-        <v>47.07029468621577</v>
+        <v>47.07029468621579</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007084</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115143</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
         <v>153.310451730797</v>
@@ -3360,7 +3360,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851005</v>
       </c>
       <c r="I36" t="n">
         <v>18.81721868247745</v>
@@ -3396,7 +3396,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T36" t="n">
-        <v>190.7165703189221</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U36" t="n">
         <v>225.7871683969286</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383229</v>
+        <v>82.1472599538323</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052283</v>
+        <v>69.56210087052284</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010735</v>
+        <v>50.93075279010736</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846416</v>
+        <v>48.74924241846418</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482624</v>
+        <v>47.73632779482625</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092322</v>
+        <v>68.34108803092323</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621577</v>
+        <v>47.07029468621579</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3518,7 +3518,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592151</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007084</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115152</v>
@@ -3597,7 +3597,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851005</v>
       </c>
       <c r="I39" t="n">
         <v>18.81721868247745</v>
@@ -3639,7 +3639,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494241</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383229</v>
+        <v>82.1472599538323</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052283</v>
+        <v>69.56210087052284</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010735</v>
+        <v>50.93075279010736</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846416</v>
+        <v>48.74924241846418</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482624</v>
+        <v>47.73632779482625</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092322</v>
+        <v>68.34108803092323</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621577</v>
+        <v>47.07029468621579</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D41" t="n">
         <v>256.998321392578</v>
@@ -3749,13 +3749,13 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136055</v>
       </c>
       <c r="G41" t="n">
         <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
         <v>153.310451730797</v>
@@ -3806,7 +3806,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="42">
@@ -3834,7 +3834,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851005</v>
       </c>
       <c r="I42" t="n">
         <v>18.81721868247745</v>
@@ -3876,7 +3876,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494241</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383228</v>
+        <v>82.1472599538323</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052281</v>
+        <v>69.56210087052284</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010736</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846415</v>
+        <v>48.74924241846418</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482622</v>
+        <v>47.73632779482625</v>
       </c>
       <c r="G43" t="n">
-        <v>68.3410880309232</v>
+        <v>68.34108803092323</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621576</v>
+        <v>47.07029468621579</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333687</v>
+        <v>92.0843051033369</v>
       </c>
       <c r="T43" t="n">
         <v>121.8642290480642</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775078</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V43" t="n">
         <v>154.452923095723</v>
@@ -3961,7 +3961,7 @@
         <v>188.838278108486</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y43" t="n">
         <v>120.8999331239898</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429024</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D44" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136063</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253483</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592154</v>
+        <v>196.923044159214</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007076</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U44" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
-        <v>230.0675382420298</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W44" t="n">
-        <v>251.5562484893079</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X44" t="n">
-        <v>272.0463804503639</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="45">
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.1472599538322</v>
+        <v>82.1472599538323</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052274</v>
+        <v>69.56210087052284</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010726</v>
+        <v>50.93075279010736</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846408</v>
+        <v>48.74924241846418</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482615</v>
+        <v>47.73632779482625</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092313</v>
+        <v>68.34108803092323</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621569</v>
+        <v>47.07029468621579</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333682</v>
+        <v>92.0843051033369</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775077</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V46" t="n">
-        <v>154.4529230957229</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W46" t="n">
-        <v>188.8382781084859</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X46" t="n">
-        <v>128.024935160932</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
   </sheetData>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1316.597850733289</v>
+        <v>1644.057218491951</v>
       </c>
       <c r="C11" t="n">
-        <v>995.0849667409508</v>
+        <v>1322.544334499613</v>
       </c>
       <c r="D11" t="n">
-        <v>684.2689010822737</v>
+        <v>1011.728268840936</v>
       </c>
       <c r="E11" t="n">
-        <v>684.2689010822737</v>
+        <v>1011.728268840936</v>
       </c>
       <c r="F11" t="n">
-        <v>684.2689010822737</v>
+        <v>648.1919969994015</v>
       </c>
       <c r="G11" t="n">
-        <v>316.646083875343</v>
+        <v>280.569179792471</v>
       </c>
       <c r="H11" t="n">
         <v>66.51211643218342</v>
@@ -5039,22 +5039,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
         <v>3018.302393296686</v>
@@ -5069,7 +5069,7 @@
         <v>3262.764786084339</v>
       </c>
       <c r="T11" t="n">
-        <v>3104.236671416634</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U11" t="n">
         <v>2898.155827638544</v>
@@ -5078,13 +5078,13 @@
         <v>2614.542573243047</v>
       </c>
       <c r="W11" t="n">
-        <v>2324.453882190083</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X11" t="n">
-        <v>1998.437756877076</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y11" t="n">
-        <v>1655.748057849338</v>
+        <v>1983.207425608</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064551</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
@@ -5121,10 +5121,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5133,7 +5133,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
         <v>2407.41198488674</v>
@@ -5148,22 +5148,22 @@
         <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.82830229719</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U12" t="n">
         <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052937</v>
+        <v>759.4662498052946</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254601</v>
+        <v>637.979699825461</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611977</v>
+        <v>535.3126933611986</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268779</v>
+        <v>434.8492327268788</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770408</v>
+        <v>335.4089181770416</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998331</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H13" t="n">
         <v>116.3881606657648</v>
@@ -5197,13 +5197,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315255</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328084</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337111</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
@@ -5218,31 +5218,31 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q13" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R13" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S13" t="n">
         <v>2112.720554588246</v>
       </c>
       <c r="T13" t="n">
-        <v>1938.403572105845</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U13" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V13" t="n">
-        <v>1489.515482921748</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W13" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874601</v>
+        <v>893.665081687461</v>
       </c>
     </row>
     <row r="14">
@@ -5255,19 +5255,19 @@
         <v>1301.367519464212</v>
       </c>
       <c r="C14" t="n">
-        <v>979.854635471874</v>
+        <v>979.8546354718737</v>
       </c>
       <c r="D14" t="n">
-        <v>979.854635471874</v>
+        <v>669.0385698131965</v>
       </c>
       <c r="E14" t="n">
-        <v>641.5160158217031</v>
+        <v>330.6999501630256</v>
       </c>
       <c r="F14" t="n">
-        <v>277.9797439801687</v>
+        <v>330.6999501630256</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H14" t="n">
         <v>66.51211643218342</v>
@@ -5276,25 +5276,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
@@ -5382,25 +5382,25 @@
         <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052942</v>
+        <v>759.4662498052943</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254606</v>
+        <v>637.9796998254607</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611982</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268784</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F16" t="n">
         <v>335.4089181770414</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H16" t="n">
         <v>116.3881606657648</v>
@@ -5443,7 +5443,7 @@
         <v>771.6978860337113</v>
       </c>
       <c r="M16" t="n">
-        <v>1162.360316885666</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N16" t="n">
         <v>1550.274078843938</v>
@@ -5467,19 +5467,19 @@
         <v>1938.403572105846</v>
       </c>
       <c r="U16" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V16" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W16" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X16" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874605</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="17">
@@ -5492,31 +5492,31 @@
         <v>1684.621236373654</v>
       </c>
       <c r="C17" t="n">
-        <v>1411.015066994995</v>
+        <v>1457.426285164255</v>
       </c>
       <c r="D17" t="n">
-        <v>1148.105715949998</v>
+        <v>1194.516934119258</v>
       </c>
       <c r="E17" t="n">
-        <v>857.6738109135076</v>
+        <v>904.0850290827669</v>
       </c>
       <c r="F17" t="n">
-        <v>542.0442536856535</v>
+        <v>588.4554718549128</v>
       </c>
       <c r="G17" t="n">
-        <v>222.3281510924038</v>
+        <v>268.7393692616628</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218417</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
@@ -5525,7 +5525,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
@@ -5546,7 +5546,7 @@
         <v>3200.050100643994</v>
       </c>
       <c r="U17" t="n">
-        <v>3041.875971479584</v>
+        <v>3041.875971479585</v>
       </c>
       <c r="V17" t="n">
         <v>2806.169431697767</v>
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
@@ -5616,28 +5616,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>424.1192475095332</v>
+        <v>424.1192475095334</v>
       </c>
       <c r="C19" t="n">
-        <v>350.5394121433798</v>
+        <v>350.5394121433799</v>
       </c>
       <c r="D19" t="n">
-        <v>295.7791202927975</v>
+        <v>295.7791202927976</v>
       </c>
       <c r="E19" t="n">
         <v>243.2223742721579</v>
@@ -5665,58 +5665,58 @@
         <v>119.3422852724734</v>
       </c>
       <c r="H19" t="n">
-        <v>68.48144605208462</v>
+        <v>68.48144605208465</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962284</v>
+        <v>171.7936262148974</v>
       </c>
       <c r="K19" t="n">
-        <v>233.3622675556054</v>
+        <v>363.5632367278422</v>
       </c>
       <c r="L19" t="n">
-        <v>482.5308677232371</v>
+        <v>612.731836895474</v>
       </c>
       <c r="M19" t="n">
-        <v>743.4221052677094</v>
+        <v>831.4649364110569</v>
       </c>
       <c r="N19" t="n">
-        <v>1008.189698542831</v>
+        <v>1096.232529686179</v>
       </c>
       <c r="O19" t="n">
-        <v>1239.566804006296</v>
+        <v>1234.150878904368</v>
       </c>
       <c r="P19" t="n">
-        <v>1431.976563004329</v>
+        <v>1426.560637902402</v>
       </c>
       <c r="Q19" t="n">
-        <v>1538.356086608144</v>
+        <v>1532.940161506217</v>
       </c>
       <c r="R19" t="n">
-        <v>1538.356086608144</v>
+        <v>1538.356086608145</v>
       </c>
       <c r="S19" t="n">
         <v>1442.026549996724</v>
       </c>
       <c r="T19" t="n">
-        <v>1315.616282128003</v>
+        <v>1315.616282128004</v>
       </c>
       <c r="U19" t="n">
-        <v>1121.8697628154</v>
+        <v>1121.869762815401</v>
       </c>
       <c r="V19" t="n">
-        <v>962.5416221712671</v>
+        <v>962.5416221712675</v>
       </c>
       <c r="W19" t="n">
-        <v>768.48079969606</v>
+        <v>768.4807996960603</v>
       </c>
       <c r="X19" t="n">
-        <v>635.8475963597961</v>
+        <v>635.8475963597964</v>
       </c>
       <c r="Y19" t="n">
-        <v>510.4113647780194</v>
+        <v>510.4113647780197</v>
       </c>
     </row>
     <row r="20">
@@ -5726,70 +5726,70 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1684.621236373654</v>
+        <v>1684.621236373653</v>
       </c>
       <c r="C20" t="n">
-        <v>1411.015066994996</v>
+        <v>1411.015066994995</v>
       </c>
       <c r="D20" t="n">
-        <v>1148.105715949999</v>
+        <v>1148.105715949998</v>
       </c>
       <c r="E20" t="n">
-        <v>904.0850290827669</v>
+        <v>904.0850290827668</v>
       </c>
       <c r="F20" t="n">
-        <v>588.4554718549128</v>
+        <v>588.4554718549127</v>
       </c>
       <c r="G20" t="n">
         <v>268.7393692616628</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3310.671500698019</v>
+        <v>3310.671500698018</v>
       </c>
       <c r="T20" t="n">
         <v>3200.050100643994</v>
       </c>
       <c r="U20" t="n">
-        <v>3041.875971479585</v>
+        <v>3041.875971479584</v>
       </c>
       <c r="V20" t="n">
-        <v>2806.169431697767</v>
+        <v>2806.169431697766</v>
       </c>
       <c r="W20" t="n">
-        <v>2548.757123989407</v>
+        <v>2548.757123989406</v>
       </c>
       <c r="X20" t="n">
         <v>2270.64771329008</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>424.1192475095332</v>
+        <v>424.1192475095334</v>
       </c>
       <c r="C22" t="n">
-        <v>350.5394121433798</v>
+        <v>350.5394121433799</v>
       </c>
       <c r="D22" t="n">
-        <v>295.7791202927975</v>
+        <v>295.7791202927976</v>
       </c>
       <c r="E22" t="n">
         <v>243.2223742721579</v>
@@ -5905,55 +5905,55 @@
         <v>68.48144605208462</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
-        <v>135.051413287935</v>
+        <v>171.7936262148974</v>
       </c>
       <c r="K22" t="n">
-        <v>326.8210238008799</v>
+        <v>363.5632367278422</v>
       </c>
       <c r="L22" t="n">
-        <v>575.9896239685116</v>
+        <v>519.2730806501994</v>
       </c>
       <c r="M22" t="n">
-        <v>743.4221052677094</v>
+        <v>780.1643181946718</v>
       </c>
       <c r="N22" t="n">
-        <v>1008.189698542831</v>
+        <v>1002.773773440904</v>
       </c>
       <c r="O22" t="n">
-        <v>1239.566804006296</v>
+        <v>1234.150878904368</v>
       </c>
       <c r="P22" t="n">
-        <v>1431.976563004329</v>
+        <v>1426.560637902402</v>
       </c>
       <c r="Q22" t="n">
-        <v>1538.356086608144</v>
+        <v>1532.940161506217</v>
       </c>
       <c r="R22" t="n">
-        <v>1538.356086608144</v>
+        <v>1538.356086608145</v>
       </c>
       <c r="S22" t="n">
         <v>1442.026549996724</v>
       </c>
       <c r="T22" t="n">
-        <v>1315.616282128003</v>
+        <v>1315.616282128004</v>
       </c>
       <c r="U22" t="n">
-        <v>1121.8697628154</v>
+        <v>1121.869762815401</v>
       </c>
       <c r="V22" t="n">
-        <v>962.5416221712671</v>
+        <v>962.5416221712675</v>
       </c>
       <c r="W22" t="n">
-        <v>768.48079969606</v>
+        <v>768.4807996960603</v>
       </c>
       <c r="X22" t="n">
-        <v>635.8475963597961</v>
+        <v>635.8475963597964</v>
       </c>
       <c r="Y22" t="n">
-        <v>510.4113647780194</v>
+        <v>510.4113647780197</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1731.032454542913</v>
+        <v>1684.621236373653</v>
       </c>
       <c r="C23" t="n">
-        <v>1457.426285164255</v>
+        <v>1411.015066994995</v>
       </c>
       <c r="D23" t="n">
-        <v>1194.516934119258</v>
+        <v>1148.105715949998</v>
       </c>
       <c r="E23" t="n">
-        <v>904.0850290827669</v>
+        <v>857.6738109135069</v>
       </c>
       <c r="F23" t="n">
-        <v>588.4554718549128</v>
+        <v>542.0442536856528</v>
       </c>
       <c r="G23" t="n">
-        <v>268.7393692616628</v>
+        <v>222.3281510924015</v>
       </c>
       <c r="H23" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218326</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
         <v>589.210621081055</v>
@@ -6014,25 +6014,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.60582160917</v>
+        <v>3310.671500698018</v>
       </c>
       <c r="T23" t="n">
-        <v>3246.461318813253</v>
+        <v>3200.050100643994</v>
       </c>
       <c r="U23" t="n">
-        <v>3088.287189648844</v>
+        <v>3041.875971479584</v>
       </c>
       <c r="V23" t="n">
-        <v>2852.580649867026</v>
+        <v>2806.169431697766</v>
       </c>
       <c r="W23" t="n">
-        <v>2595.168342158666</v>
+        <v>2548.757123989406</v>
       </c>
       <c r="X23" t="n">
-        <v>2317.058931459339</v>
+        <v>2270.64771329008</v>
       </c>
       <c r="Y23" t="n">
-        <v>2022.275947045281</v>
+        <v>1975.864728876021</v>
       </c>
     </row>
     <row r="24">
@@ -6066,13 +6066,13 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>424.1192475095331</v>
+        <v>424.1192475095334</v>
       </c>
       <c r="C25" t="n">
-        <v>350.5394121433796</v>
+        <v>350.5394121433799</v>
       </c>
       <c r="D25" t="n">
-        <v>295.7791202927974</v>
+        <v>295.7791202927976</v>
       </c>
       <c r="E25" t="n">
-        <v>243.2223742721578</v>
+        <v>243.2223742721579</v>
       </c>
       <c r="F25" t="n">
-        <v>191.6887743360009</v>
+        <v>191.688774336001</v>
       </c>
       <c r="G25" t="n">
-        <v>119.3422852724733</v>
+        <v>119.3422852724734</v>
       </c>
       <c r="H25" t="n">
-        <v>68.48144605208459</v>
+        <v>68.48144605208462</v>
       </c>
       <c r="I25" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962282</v>
+        <v>171.7936262148974</v>
       </c>
       <c r="K25" t="n">
-        <v>233.3622675556054</v>
+        <v>270.1044804825677</v>
       </c>
       <c r="L25" t="n">
-        <v>482.5308677232371</v>
+        <v>519.2730806501994</v>
       </c>
       <c r="M25" t="n">
-        <v>743.4221052677094</v>
+        <v>780.1643181946718</v>
       </c>
       <c r="N25" t="n">
-        <v>1008.189698542831</v>
+        <v>1044.931911469794</v>
       </c>
       <c r="O25" t="n">
-        <v>1239.566804006296</v>
+        <v>1276.309016933258</v>
       </c>
       <c r="P25" t="n">
-        <v>1431.976563004329</v>
+        <v>1468.718775931291</v>
       </c>
       <c r="Q25" t="n">
-        <v>1538.356086608144</v>
+        <v>1532.940161506217</v>
       </c>
       <c r="R25" t="n">
-        <v>1538.356086608144</v>
+        <v>1538.356086608145</v>
       </c>
       <c r="S25" t="n">
         <v>1442.026549996724</v>
       </c>
       <c r="T25" t="n">
-        <v>1315.616282128003</v>
+        <v>1315.616282128004</v>
       </c>
       <c r="U25" t="n">
-        <v>1121.8697628154</v>
+        <v>1121.869762815401</v>
       </c>
       <c r="V25" t="n">
-        <v>962.541622171267</v>
+        <v>962.5416221712675</v>
       </c>
       <c r="W25" t="n">
-        <v>768.4807996960599</v>
+        <v>768.4807996960603</v>
       </c>
       <c r="X25" t="n">
-        <v>635.8475963597959</v>
+        <v>635.8475963597964</v>
       </c>
       <c r="Y25" t="n">
-        <v>510.4113647780193</v>
+        <v>510.4113647780197</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2014.259094492763</v>
+        <v>1305.024172789066</v>
       </c>
       <c r="C26" t="n">
-        <v>1693.203292166031</v>
+        <v>983.9683704623349</v>
       </c>
       <c r="D26" t="n">
-        <v>1382.844308172961</v>
+        <v>673.6093864692637</v>
       </c>
       <c r="E26" t="n">
-        <v>1044.962770188397</v>
+        <v>673.6093864692637</v>
       </c>
       <c r="F26" t="n">
-        <v>681.8835800124693</v>
+        <v>673.6093864692637</v>
       </c>
       <c r="G26" t="n">
-        <v>316.189002209736</v>
+        <v>316.1890022097361</v>
       </c>
       <c r="H26" t="n">
         <v>66.51211643218339</v>
@@ -6251,25 +6251,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3263.221867749945</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.60582160917</v>
+        <v>3105.150834747847</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.60582160917</v>
+        <v>2899.527072635364</v>
       </c>
       <c r="V26" t="n">
-        <v>3325.60582160917</v>
+        <v>2616.370899905473</v>
       </c>
       <c r="W26" t="n">
-        <v>3020.743880952736</v>
+        <v>2311.508959249039</v>
       </c>
       <c r="X26" t="n">
-        <v>2695.184837305336</v>
+        <v>1985.94991560164</v>
       </c>
       <c r="Y26" t="n">
-        <v>2352.952219943204</v>
+        <v>1643.717298239508</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L27" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O27" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q27" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
         <v>2564.909189125856</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>756.2666781460464</v>
+        <v>756.2666781460466</v>
       </c>
       <c r="C28" t="n">
-        <v>635.2372098318197</v>
+        <v>635.2372098318198</v>
       </c>
       <c r="D28" t="n">
-        <v>533.027285033164</v>
+        <v>533.0272850331642</v>
       </c>
       <c r="E28" t="n">
         <v>433.0209060644511</v>
       </c>
       <c r="F28" t="n">
-        <v>334.0376731802208</v>
+        <v>334.0376731802209</v>
       </c>
       <c r="G28" t="n">
-        <v>214.2415511686199</v>
+        <v>214.24155116862</v>
       </c>
       <c r="H28" t="n">
         <v>115.9310790001579</v>
@@ -6382,16 +6382,16 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J28" t="n">
-        <v>158.5881198719869</v>
+        <v>147.6909272985876</v>
       </c>
       <c r="K28" t="n">
-        <v>409.5286738137311</v>
+        <v>398.6314812403318</v>
       </c>
       <c r="L28" t="n">
-        <v>773.041843255095</v>
+        <v>762.1446506816958</v>
       </c>
       <c r="M28" t="n">
-        <v>1153.255067274112</v>
+        <v>1153.255067274113</v>
       </c>
       <c r="N28" t="n">
         <v>1541.616814972845</v>
@@ -6400,7 +6400,7 @@
         <v>1887.899784886126</v>
       </c>
       <c r="P28" t="n">
-        <v>2167.460656312653</v>
+        <v>2167.460656312654</v>
       </c>
       <c r="Q28" t="n">
         <v>2292.024323458036</v>
@@ -6415,7 +6415,7 @@
         <v>1932.461510452957</v>
       </c>
       <c r="U28" t="n">
-        <v>1691.26535819228</v>
+        <v>1691.265358192281</v>
       </c>
       <c r="V28" t="n">
         <v>1484.487584600074</v>
@@ -6427,7 +6427,7 @@
         <v>1062.894292892456</v>
       </c>
       <c r="Y28" t="n">
-        <v>890.008428362606</v>
+        <v>890.0084283626062</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1951.875140633538</v>
+        <v>1444.997564127069</v>
       </c>
       <c r="C29" t="n">
-        <v>1630.819338306806</v>
+        <v>1444.997564127069</v>
       </c>
       <c r="D29" t="n">
-        <v>1320.460354313736</v>
+        <v>1134.638580133998</v>
       </c>
       <c r="E29" t="n">
-        <v>982.5788163291716</v>
+        <v>796.7570421494343</v>
       </c>
       <c r="F29" t="n">
-        <v>619.4996261532442</v>
+        <v>433.6778519735068</v>
       </c>
       <c r="G29" t="n">
-        <v>252.3338906119205</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H29" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218326</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6491,22 +6491,22 @@
         <v>3263.221867749945</v>
       </c>
       <c r="T29" t="n">
-        <v>3263.221867749945</v>
+        <v>3105.150834747847</v>
       </c>
       <c r="U29" t="n">
-        <v>3263.221867749945</v>
+        <v>2899.527072635364</v>
       </c>
       <c r="V29" t="n">
-        <v>3263.221867749945</v>
+        <v>2616.370899905473</v>
       </c>
       <c r="W29" t="n">
-        <v>2958.359927093511</v>
+        <v>2311.508959249039</v>
       </c>
       <c r="X29" t="n">
-        <v>2632.800883446111</v>
+        <v>2125.923306939642</v>
       </c>
       <c r="Y29" t="n">
-        <v>2290.568266083979</v>
+        <v>1783.690689577511</v>
       </c>
     </row>
     <row r="30">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>756.2666781460468</v>
+        <v>756.2666781460466</v>
       </c>
       <c r="C31" t="n">
-        <v>635.23720983182</v>
+        <v>635.2372098318198</v>
       </c>
       <c r="D31" t="n">
-        <v>533.0272850331644</v>
+        <v>533.0272850331642</v>
       </c>
       <c r="E31" t="n">
-        <v>433.0209060644514</v>
+        <v>433.0209060644511</v>
       </c>
       <c r="F31" t="n">
-        <v>334.0376731802211</v>
+        <v>334.0376731802209</v>
       </c>
       <c r="G31" t="n">
-        <v>214.2415511686201</v>
+        <v>214.24155116862</v>
       </c>
       <c r="H31" t="n">
-        <v>115.931079000158</v>
+        <v>115.9310790001579</v>
       </c>
       <c r="I31" t="n">
         <v>66.51211643218339</v>
@@ -6625,25 +6625,25 @@
         <v>409.528673813731</v>
       </c>
       <c r="L31" t="n">
-        <v>773.0418432550948</v>
+        <v>773.041843255095</v>
       </c>
       <c r="M31" t="n">
-        <v>1164.152259847512</v>
+        <v>1153.255067274113</v>
       </c>
       <c r="N31" t="n">
-        <v>1552.514007546244</v>
+        <v>1541.616814972845</v>
       </c>
       <c r="O31" t="n">
-        <v>1898.796977459525</v>
+        <v>1887.899784886126</v>
       </c>
       <c r="P31" t="n">
         <v>2167.460656312654</v>
       </c>
       <c r="Q31" t="n">
-        <v>2292.024323458037</v>
+        <v>2292.024323458036</v>
       </c>
       <c r="R31" t="n">
-        <v>2250.100580829245</v>
+        <v>2250.100580829244</v>
       </c>
       <c r="S31" t="n">
         <v>2106.321411269751</v>
@@ -6658,13 +6658,13 @@
         <v>1484.487584600074</v>
       </c>
       <c r="W31" t="n">
-        <v>1242.977129176794</v>
+        <v>1242.977129176793</v>
       </c>
       <c r="X31" t="n">
         <v>1062.894292892456</v>
       </c>
       <c r="Y31" t="n">
-        <v>890.0084283626064</v>
+        <v>890.0084283626062</v>
       </c>
     </row>
     <row r="32">
@@ -6701,19 +6701,19 @@
         <v>255.3912473912088</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
         <v>3018.302393296685</v>
@@ -6734,7 +6734,7 @@
         <v>3051.821232515854</v>
       </c>
       <c r="V32" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W32" t="n">
         <v>2565.332559049856</v>
@@ -6743,7 +6743,7 @@
         <v>2290.53823536262</v>
       </c>
       <c r="Y32" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811077</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999807</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387296</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332737</v>
+        <v>458.918960533274</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601591</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064531</v>
       </c>
       <c r="I33" t="n">
         <v>66.51211643218339</v>
@@ -6780,7 +6780,7 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
         <v>765.151745215813</v>
@@ -6795,22 +6795,22 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T33" t="n">
         <v>2242.828302297191</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199864</v>
@@ -6819,7 +6819,7 @@
         <v>1525.370990471662</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y33" t="n">
         <v>1109.759191501176</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>402.259395817092</v>
+        <v>402.2593958170921</v>
       </c>
       <c r="C34" t="n">
         <v>331.9946474630286</v>
       </c>
       <c r="D34" t="n">
-        <v>280.5494426245363</v>
+        <v>280.5494426245364</v>
       </c>
       <c r="E34" t="n">
         <v>231.3077836159867</v>
@@ -6853,34 +6853,34 @@
         <v>66.51211643218339</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218339</v>
+        <v>67.83109325226762</v>
       </c>
       <c r="J34" t="n">
-        <v>78.33486996962282</v>
+        <v>79.65384678970707</v>
       </c>
       <c r="K34" t="n">
-        <v>176.6457242372931</v>
+        <v>177.9647010573775</v>
       </c>
       <c r="L34" t="n">
-        <v>417.9047360313293</v>
+        <v>430.3824180055586</v>
       </c>
       <c r="M34" t="n">
-        <v>682.045090356351</v>
+        <v>694.5227723305804</v>
       </c>
       <c r="N34" t="n">
-        <v>950.0618004120224</v>
+        <v>962.5394823862518</v>
       </c>
       <c r="O34" t="n">
-        <v>1184.688022656036</v>
+        <v>1176.022980773559</v>
       </c>
       <c r="P34" t="n">
-        <v>1380.346898434619</v>
+        <v>1371.681856552142</v>
       </c>
       <c r="Q34" t="n">
-        <v>1489.975538818983</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R34" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S34" t="n">
         <v>1396.961089219653</v>
@@ -6889,19 +6889,19 @@
         <v>1273.865908363023</v>
       </c>
       <c r="U34" t="n">
-        <v>1083.434476062509</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V34" t="n">
-        <v>927.421422430466</v>
+        <v>927.4214224304662</v>
       </c>
       <c r="W34" t="n">
-        <v>736.6756869673488</v>
+        <v>736.6756869673491</v>
       </c>
       <c r="X34" t="n">
-        <v>607.3575706431749</v>
+        <v>607.3575706431751</v>
       </c>
       <c r="Y34" t="n">
-        <v>485.2364260734882</v>
+        <v>485.2364260734884</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464979</v>
+        <v>894.1397680464969</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307338</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G35" t="n">
         <v>265.4242822495728</v>
       </c>
       <c r="H35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R35" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668173</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7044,22 +7044,22 @@
         <v>2435.471302619335</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.259395817092</v>
+        <v>402.2593958170921</v>
       </c>
       <c r="C37" t="n">
         <v>331.9946474630286</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245363</v>
+        <v>280.5494426245364</v>
       </c>
       <c r="E37" t="n">
         <v>231.3077836159867</v>
@@ -7087,37 +7087,37 @@
         <v>114.0578686404822</v>
       </c>
       <c r="H37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J37" t="n">
-        <v>175.0427429954468</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K37" t="n">
-        <v>370.0614702889411</v>
+        <v>273.3535972631171</v>
       </c>
       <c r="L37" t="n">
-        <v>622.4791872371222</v>
+        <v>505.9475671746765</v>
       </c>
       <c r="M37" t="n">
-        <v>886.6195415621439</v>
+        <v>673.3800484738742</v>
       </c>
       <c r="N37" t="n">
-        <v>1154.636251617815</v>
+        <v>941.3967585295457</v>
       </c>
       <c r="O37" t="n">
-        <v>1378.103768707684</v>
+        <v>1176.022980773559</v>
       </c>
       <c r="P37" t="n">
-        <v>1477.054771460442</v>
+        <v>1371.681856552142</v>
       </c>
       <c r="Q37" t="n">
-        <v>1489.975538818983</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R37" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S37" t="n">
         <v>1396.961089219653</v>
@@ -7126,19 +7126,19 @@
         <v>1273.865908363023</v>
       </c>
       <c r="U37" t="n">
-        <v>1083.434476062509</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V37" t="n">
-        <v>927.421422430466</v>
+        <v>927.4214224304662</v>
       </c>
       <c r="W37" t="n">
-        <v>736.6756869673488</v>
+        <v>736.6756869673491</v>
       </c>
       <c r="X37" t="n">
-        <v>607.3575706431749</v>
+        <v>607.3575706431751</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.2364260734882</v>
+        <v>485.2364260734884</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7154,28 @@
         <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E38" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464967</v>
       </c>
       <c r="F38" t="n">
-        <v>581.825297830733</v>
+        <v>581.8252978307326</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495724</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7187,7 +7187,7 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
         <v>3018.302393296685</v>
@@ -7199,19 +7199,19 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T38" t="n">
         <v>3206.680274668174</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515853</v>
       </c>
       <c r="V38" t="n">
         <v>2819.429779746126</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049855</v>
       </c>
       <c r="X38" t="n">
         <v>2290.53823536262</v>
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7287,16 +7287,16 @@
         <v>2014.760455431606</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.259395817092</v>
+        <v>402.2593958170921</v>
       </c>
       <c r="C40" t="n">
         <v>331.9946474630286</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245363</v>
+        <v>280.5494426245364</v>
       </c>
       <c r="E40" t="n">
         <v>231.3077836159867</v>
@@ -7324,37 +7324,37 @@
         <v>114.0578686404822</v>
       </c>
       <c r="H40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I40" t="n">
-        <v>66.5121164321834</v>
+        <v>67.83109325226761</v>
       </c>
       <c r="J40" t="n">
-        <v>175.0427429954468</v>
+        <v>155.218995958825</v>
       </c>
       <c r="K40" t="n">
-        <v>370.0614702889411</v>
+        <v>350.2377232523193</v>
       </c>
       <c r="L40" t="n">
-        <v>525.7713142112983</v>
+        <v>602.6554402005004</v>
       </c>
       <c r="M40" t="n">
-        <v>789.91166853632</v>
+        <v>866.7957945255221</v>
       </c>
       <c r="N40" t="n">
-        <v>1057.928378591992</v>
+        <v>1134.812504581193</v>
       </c>
       <c r="O40" t="n">
-        <v>1292.554600836005</v>
+        <v>1272.730853799383</v>
       </c>
       <c r="P40" t="n">
-        <v>1477.054771460442</v>
+        <v>1468.389729577966</v>
       </c>
       <c r="Q40" t="n">
-        <v>1489.975538818983</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R40" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S40" t="n">
         <v>1396.961089219653</v>
@@ -7363,19 +7363,19 @@
         <v>1273.865908363023</v>
       </c>
       <c r="U40" t="n">
-        <v>1083.434476062509</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V40" t="n">
-        <v>927.421422430466</v>
+        <v>927.4214224304662</v>
       </c>
       <c r="W40" t="n">
-        <v>736.6756869673488</v>
+        <v>736.6756869673491</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431749</v>
+        <v>607.3575706431751</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734882</v>
+        <v>485.2364260734884</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>894.1397680464961</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307323</v>
+        <v>581.8252978307329</v>
       </c>
       <c r="G41" t="n">
         <v>265.4242822495727</v>
@@ -7448,13 +7448,13 @@
         <v>2819.429779746126</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049855</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X41" t="n">
         <v>2290.538235362619</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.07033796065</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H42" t="n">
         <v>85.51940803064545</v>
@@ -7524,16 +7524,16 @@
         <v>2014.760455431606</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.259395817092</v>
+        <v>402.2593958170921</v>
       </c>
       <c r="C43" t="n">
-        <v>331.9946474630285</v>
+        <v>331.9946474630286</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245363</v>
+        <v>280.5494426245364</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159866</v>
+        <v>231.3077836159867</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919197</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404821</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H43" t="n">
         <v>66.51211643218339</v>
@@ -7567,52 +7567,52 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962282</v>
+        <v>175.0427429954468</v>
       </c>
       <c r="K43" t="n">
-        <v>273.3535972631171</v>
+        <v>370.061470288941</v>
       </c>
       <c r="L43" t="n">
         <v>525.7713142112982</v>
       </c>
       <c r="M43" t="n">
-        <v>789.9116685363199</v>
+        <v>693.203795510496</v>
       </c>
       <c r="N43" t="n">
-        <v>1057.928378591991</v>
+        <v>961.2205055661674</v>
       </c>
       <c r="O43" t="n">
         <v>1195.846727810181</v>
       </c>
       <c r="P43" t="n">
-        <v>1380.346898434618</v>
+        <v>1391.505603588764</v>
       </c>
       <c r="Q43" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="R43" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S43" t="n">
         <v>1396.961089219653</v>
       </c>
       <c r="T43" t="n">
-        <v>1273.865908363022</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U43" t="n">
-        <v>1083.434476062509</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V43" t="n">
-        <v>927.4214224304659</v>
+        <v>927.4214224304662</v>
       </c>
       <c r="W43" t="n">
-        <v>736.6756869673487</v>
+        <v>736.6756869673491</v>
       </c>
       <c r="X43" t="n">
-        <v>607.3575706431749</v>
+        <v>607.3575706431751</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.2364260734882</v>
+        <v>485.2364260734884</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470372</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103804</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070896</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464974</v>
+        <v>894.1397680464956</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307333</v>
+        <v>581.8252978307319</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495726</v>
+        <v>265.4242822495713</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218339</v>
@@ -7649,7 +7649,7 @@
         <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
@@ -7679,19 +7679,19 @@
         <v>3206.680274668174</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515853</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049855</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362618</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.07033796065</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811072</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999803</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387291</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332735</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601586</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
         <v>176.021302392778</v>
@@ -7725,52 +7725,52 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>402.2593958170916</v>
+        <v>402.2593958170921</v>
       </c>
       <c r="C46" t="n">
-        <v>331.9946474630282</v>
+        <v>331.9946474630286</v>
       </c>
       <c r="D46" t="n">
-        <v>280.549442624536</v>
+        <v>280.5494426245364</v>
       </c>
       <c r="E46" t="n">
-        <v>231.3077836159864</v>
+        <v>231.3077836159867</v>
       </c>
       <c r="F46" t="n">
-        <v>183.0892706919196</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G46" t="n">
-        <v>114.0578686404821</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H46" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218339</v>
+        <v>67.83109325226761</v>
       </c>
       <c r="J46" t="n">
-        <v>163.8840378412999</v>
+        <v>79.65384678970703</v>
       </c>
       <c r="K46" t="n">
-        <v>358.9027651347942</v>
+        <v>274.6725740832013</v>
       </c>
       <c r="L46" t="n">
-        <v>514.6126090571514</v>
+        <v>430.3824180055585</v>
       </c>
       <c r="M46" t="n">
-        <v>682.0450903563492</v>
+        <v>694.5227723305802</v>
       </c>
       <c r="N46" t="n">
-        <v>950.0618004120207</v>
+        <v>962.5394823862516</v>
       </c>
       <c r="O46" t="n">
-        <v>1184.688022656034</v>
+        <v>1184.688022656036</v>
       </c>
       <c r="P46" t="n">
-        <v>1380.346898434617</v>
+        <v>1380.346898434619</v>
       </c>
       <c r="Q46" t="n">
-        <v>1489.975538818982</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="R46" t="n">
-        <v>1489.975538818982</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S46" t="n">
-        <v>1396.961089219652</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T46" t="n">
-        <v>1273.865908363021</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U46" t="n">
-        <v>1083.434476062509</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V46" t="n">
-        <v>927.4214224304652</v>
+        <v>927.4214224304662</v>
       </c>
       <c r="W46" t="n">
-        <v>736.6756869673482</v>
+        <v>736.6756869673491</v>
       </c>
       <c r="X46" t="n">
-        <v>607.3575706431743</v>
+        <v>607.3575706431751</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.2364260734877</v>
+        <v>485.2364260734884</v>
       </c>
     </row>
   </sheetData>
@@ -9103,7 +9103,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q16" t="n">
-        <v>65.34295837775146</v>
+        <v>65.34295837775149</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -10030,7 +10030,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>33.63624132272333</v>
+        <v>22.62897609706759</v>
       </c>
       <c r="K28" t="n">
         <v>106.7437663446525</v>
@@ -10039,7 +10039,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>167.5023956837891</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N28" t="n">
         <v>171.8177168444618</v>
@@ -10276,7 +10276,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
-        <v>178.5096609094456</v>
+        <v>167.5023956837899</v>
       </c>
       <c r="N31" t="n">
         <v>171.8177168444618</v>
@@ -10285,7 +10285,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
-        <v>123.9992980883861</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -23267,13 +23267,13 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>35.71613504204288</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>15.07802795638605</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="12">
@@ -23498,19 +23498,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020903</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
-        <v>154.5936377623554</v>
+        <v>350.033261410055</v>
       </c>
       <c r="H14" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>45.94710598756683</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>45.94710598756638</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>45.9471059875664</v>
+        <v>45.94710598756787</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24221,7 +24221,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>45.9471059875687</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24254,10 +24254,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>14.78497770203992</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>31.16212828552722</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24449,13 +24449,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>334.5027226047185</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>359.4483982741681</v>
       </c>
       <c r="G26" t="n">
-        <v>1.456446161204042</v>
+        <v>9.647897768977945</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24491,16 +24491,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>61.7601143206325</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>156.4903226720768</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>203.5675244913586</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>280.3246110025916</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24680,7 +24680,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>317.8452443034643</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>63.21656048183746</v>
+        <v>247.1801169197772</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24731,19 +24731,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>156.4903226720769</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>203.5675244913587</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>280.3246110025916</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>138.5736574246227</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -25205,7 +25205,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>8.384404281969182e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25406,7 +25406,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>3.907985046680551e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25637,7 +25637,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1.527666881884215e-12</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>587426.9686126653</v>
+        <v>587426.9686126654</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>613038.2851707551</v>
+        <v>613038.2851707549</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>613038.2851707551</v>
+        <v>613038.2851707549</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>587653.2769201044</v>
+        <v>587653.2769201042</v>
       </c>
     </row>
     <row r="11">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>819276.3387170383</v>
+        <v>819276.3387170382</v>
       </c>
       <c r="C2" t="n">
-        <v>819276.3387170382</v>
+        <v>819276.3387170384</v>
       </c>
       <c r="D2" t="n">
-        <v>819279.8872792883</v>
+        <v>819279.8872792884</v>
       </c>
       <c r="E2" t="n">
-        <v>764531.0098898424</v>
+        <v>764531.0098898425</v>
       </c>
       <c r="F2" t="n">
-        <v>764531.0098898427</v>
+        <v>764531.0098898412</v>
       </c>
       <c r="G2" t="n">
-        <v>817384.380227674</v>
+        <v>817384.3802276738</v>
       </c>
       <c r="H2" t="n">
+        <v>817384.3802276738</v>
+      </c>
+      <c r="I2" t="n">
         <v>817384.3802276739</v>
       </c>
-      <c r="I2" t="n">
-        <v>817384.380227674</v>
-      </c>
       <c r="J2" t="n">
-        <v>765035.2879799129</v>
+        <v>765035.2879799127</v>
       </c>
       <c r="K2" t="n">
-        <v>765035.2879799128</v>
+        <v>765035.2879799125</v>
       </c>
       <c r="L2" t="n">
+        <v>821041.7698642834</v>
+      </c>
+      <c r="M2" t="n">
         <v>821041.7698642836</v>
-      </c>
-      <c r="M2" t="n">
-        <v>821041.769864283</v>
       </c>
       <c r="N2" t="n">
         <v>821041.7698642834</v>
       </c>
       <c r="O2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.7698642835</v>
       </c>
       <c r="P2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.7698642835</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>9496.994971250879</v>
+        <v>9496.994971250489</v>
       </c>
       <c r="E3" t="n">
-        <v>1152439.021265975</v>
+        <v>1152439.021265976</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37942.11797403467</v>
+        <v>37942.11797403466</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>78147.77618248406</v>
+        <v>78147.776182484</v>
       </c>
       <c r="M3" t="n">
         <v>207188.568292073</v>
@@ -26421,13 +26421,13 @@
         <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>463750.8212586369</v>
+        <v>463750.8212586371</v>
       </c>
       <c r="E4" t="n">
-        <v>61875.22120367244</v>
+        <v>61875.22120367243</v>
       </c>
       <c r="F4" t="n">
-        <v>61875.22120367244</v>
+        <v>61875.22120367243</v>
       </c>
       <c r="G4" t="n">
         <v>91701.70120662289</v>
@@ -26436,19 +26436,19 @@
         <v>91701.70120662288</v>
       </c>
       <c r="I4" t="n">
-        <v>91701.70120662288</v>
+        <v>91701.70120662286</v>
       </c>
       <c r="J4" t="n">
-        <v>62159.64863317458</v>
+        <v>62159.64863317453</v>
       </c>
       <c r="K4" t="n">
-        <v>62159.64863317455</v>
+        <v>62159.64863317457</v>
       </c>
       <c r="L4" t="n">
-        <v>93774.13782657706</v>
+        <v>93774.13782657696</v>
       </c>
       <c r="M4" t="n">
-        <v>93774.13782657706</v>
+        <v>93774.13782657709</v>
       </c>
       <c r="N4" t="n">
         <v>93774.13782657706</v>
@@ -26457,7 +26457,7 @@
         <v>93774.13782657706</v>
       </c>
       <c r="P4" t="n">
-        <v>93774.13782657709</v>
+        <v>93774.13782657703</v>
       </c>
     </row>
     <row r="5">
@@ -26473,25 +26473,25 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33869.34580328354</v>
+        <v>33869.34580328353</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="F5" t="n">
         <v>78255.49332178175</v>
       </c>
       <c r="G5" t="n">
-        <v>82242.68821673066</v>
+        <v>82242.68821673065</v>
       </c>
       <c r="H5" t="n">
-        <v>82242.68821673066</v>
+        <v>82242.68821673063</v>
       </c>
       <c r="I5" t="n">
         <v>82242.68821673063</v>
       </c>
       <c r="J5" t="n">
-        <v>78293.53545634219</v>
+        <v>78293.53545634217</v>
       </c>
       <c r="K5" t="n">
         <v>78293.53545634217</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>318032.7787853071</v>
+        <v>318028.3652074388</v>
       </c>
       <c r="C6" t="n">
-        <v>318032.778785307</v>
+        <v>318028.3652074391</v>
       </c>
       <c r="D6" t="n">
-        <v>312162.7252461169</v>
+        <v>312158.3205396548</v>
       </c>
       <c r="E6" t="n">
-        <v>-528038.7259015873</v>
+        <v>-528180.002801524</v>
       </c>
       <c r="F6" t="n">
-        <v>624400.2953643883</v>
+        <v>624259.0184644508</v>
       </c>
       <c r="G6" t="n">
-        <v>605497.8728302859</v>
+        <v>605488.7293561941</v>
       </c>
       <c r="H6" t="n">
-        <v>643439.9908043204</v>
+        <v>643430.8473302288</v>
       </c>
       <c r="I6" t="n">
-        <v>643439.9908043206</v>
+        <v>643430.8473302289</v>
       </c>
       <c r="J6" t="n">
-        <v>624582.1038903962</v>
+        <v>624442.0876856851</v>
       </c>
       <c r="K6" t="n">
-        <v>624582.1038903961</v>
+        <v>624442.0876856848</v>
       </c>
       <c r="L6" t="n">
         <v>566601.2585489727</v>
       </c>
       <c r="M6" t="n">
-        <v>437560.4664393832</v>
+        <v>437560.4664393837</v>
       </c>
       <c r="N6" t="n">
         <v>644749.0347314565</v>
@@ -26695,37 +26695,37 @@
         <v>46.97513661859257</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G2" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="H2" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="I2" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="J2" t="n">
-        <v>47.42764746754335</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="K2" t="n">
-        <v>47.42764746754328</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="L2" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>11.08925703135502</v>
+        <v>11.08925703135457</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022926</v>
@@ -26805,7 +26805,7 @@
         <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022924</v>
@@ -26820,10 +26820,10 @@
         <v>831.4014554022924</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022924</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>11.08925703135502</v>
+        <v>11.08925703135457</v>
       </c>
       <c r="E3" t="n">
-        <v>1078.687443561943</v>
+        <v>1078.687443561944</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27871,34 +27871,34 @@
         <v>339.0182479305516</v>
       </c>
       <c r="I8" t="n">
-        <v>208.757221905275</v>
+        <v>208.7572219052751</v>
       </c>
       <c r="J8" t="n">
-        <v>177.262238882606</v>
+        <v>177.2622388826062</v>
       </c>
       <c r="K8" t="n">
-        <v>214.4191170586399</v>
+        <v>214.4191170586402</v>
       </c>
       <c r="L8" t="n">
-        <v>228.7313680193317</v>
+        <v>228.731368019332</v>
       </c>
       <c r="M8" t="n">
-        <v>222.5183879862399</v>
+        <v>222.5183879862402</v>
       </c>
       <c r="N8" t="n">
-        <v>221.4585556357979</v>
+        <v>221.4585556357983</v>
       </c>
       <c r="O8" t="n">
-        <v>222.5869951175994</v>
+        <v>222.5869951175997</v>
       </c>
       <c r="P8" t="n">
-        <v>224.822346417862</v>
+        <v>224.8223464178622</v>
       </c>
       <c r="Q8" t="n">
-        <v>217.4915592000988</v>
+        <v>217.491559200099</v>
       </c>
       <c r="R8" t="n">
-        <v>212.7851939267116</v>
+        <v>212.7851939267117</v>
       </c>
       <c r="S8" t="n">
         <v>208.0042044823177</v>
@@ -27950,34 +27950,34 @@
         <v>112.0050806140149</v>
       </c>
       <c r="I9" t="n">
-        <v>98.7011472858855</v>
+        <v>98.70114728588553</v>
       </c>
       <c r="J9" t="n">
-        <v>124.5841013297571</v>
+        <v>124.5841013297572</v>
       </c>
       <c r="K9" t="n">
-        <v>133.9898052373458</v>
+        <v>133.989805237346</v>
       </c>
       <c r="L9" t="n">
-        <v>133.3753828993343</v>
+        <v>133.3753828993345</v>
       </c>
       <c r="M9" t="n">
-        <v>136.0903888399298</v>
+        <v>136.0903888399301</v>
       </c>
       <c r="N9" t="n">
-        <v>125.1381096993491</v>
+        <v>125.1381096993494</v>
       </c>
       <c r="O9" t="n">
-        <v>136.9211602351999</v>
+        <v>136.9211602352002</v>
       </c>
       <c r="P9" t="n">
-        <v>129.4196520121497</v>
+        <v>129.4196520121499</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.937040721488</v>
+        <v>136.9370407214881</v>
       </c>
       <c r="R9" t="n">
-        <v>144.1985650721162</v>
+        <v>144.1985650721163</v>
       </c>
       <c r="S9" t="n">
         <v>171.2401239007455</v>
@@ -28035,25 +28035,25 @@
         <v>125.5816320634478</v>
       </c>
       <c r="K10" t="n">
-        <v>126.6899679269171</v>
+        <v>126.6899679269172</v>
       </c>
       <c r="L10" t="n">
-        <v>131.9116646502419</v>
+        <v>131.911664650242</v>
       </c>
       <c r="M10" t="n">
-        <v>135.7911600297091</v>
+        <v>135.7911600297092</v>
       </c>
       <c r="N10" t="n">
-        <v>124.6254548978758</v>
+        <v>124.625454897876</v>
       </c>
       <c r="O10" t="n">
-        <v>135.6300504465394</v>
+        <v>135.6300504465395</v>
       </c>
       <c r="P10" t="n">
-        <v>135.309455269719</v>
+        <v>135.3094552697191</v>
       </c>
       <c r="Q10" t="n">
-        <v>149.8305238177112</v>
+        <v>149.8305238177113</v>
       </c>
       <c r="R10" t="n">
         <v>176.3942526021354</v>
@@ -28108,7 +28108,7 @@
         <v>46.97513661859257</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28226,7 +28226,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>1.620037437533028e-12</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292598</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="15">
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28454,7 +28454,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="C17" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="D17" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="E17" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="F17" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="G17" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="H17" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="T17" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="U17" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="V17" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="W17" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="X17" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="Y17" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
     </row>
     <row r="18">
@@ -28661,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="C19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="D19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="E19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="F19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="G19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="H19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="I19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="K19" t="n">
-        <v>57.28943769526487</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="L19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="M19" t="n">
-        <v>94.40278408613592</v>
+        <v>51.81880627917693</v>
       </c>
       <c r="N19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="O19" t="n">
-        <v>94.40278408613592</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="Q19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="S19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="T19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="U19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="V19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="W19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="X19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="Y19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="C20" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="D20" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="E20" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="F20" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="G20" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="H20" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="T20" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="U20" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="V20" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="W20" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="X20" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="Y20" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
     </row>
     <row r="21">
@@ -28895,7 +28895,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="C22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="D22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="E22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="F22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="G22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="H22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="I22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="J22" t="n">
-        <v>57.28943769526477</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="K22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="L22" t="n">
-        <v>94.40278408613592</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="N22" t="n">
-        <v>94.40278408613592</v>
+        <v>51.81880627917684</v>
       </c>
       <c r="O22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="P22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="Q22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="S22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="T22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="U22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="V22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="W22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="X22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="Y22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="C23" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="D23" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="E23" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="F23" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="G23" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="H23" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="T23" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="U23" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="V23" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="W23" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="X23" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="Y23" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="C25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="D25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="E25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="F25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="G25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="H25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="I25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="K25" t="n">
-        <v>57.28943769526489</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="M25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="N25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="O25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="P25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="Q25" t="n">
-        <v>94.40278408613592</v>
+        <v>51.81880627917678</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="S25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="T25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="U25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="V25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="W25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="X25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
       <c r="Y25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.4027840861359</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>47.42764746754335</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="C26" t="n">
-        <v>47.42764746754335</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="D26" t="n">
-        <v>47.42764746754335</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="E26" t="n">
-        <v>47.42764746754335</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="F26" t="n">
-        <v>47.42764746754335</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="G26" t="n">
-        <v>47.42764746754335</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="H26" t="n">
-        <v>47.42764746754335</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.42764746754335</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="T26" t="n">
-        <v>47.42764746754335</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="U26" t="n">
-        <v>47.42764746754335</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="V26" t="n">
-        <v>47.42764746754335</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="W26" t="n">
-        <v>47.42764746754335</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="X26" t="n">
-        <v>47.42764746754335</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="Y26" t="n">
-        <v>47.42764746754335</v>
+        <v>47.42764746754332</v>
       </c>
     </row>
     <row r="27">
@@ -29399,7 +29399,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.42764746754335</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="C28" t="n">
-        <v>47.42764746754335</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="D28" t="n">
-        <v>47.42764746754335</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="E28" t="n">
-        <v>47.42764746754335</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="F28" t="n">
-        <v>47.42764746754335</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="G28" t="n">
-        <v>47.42764746754335</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="H28" t="n">
-        <v>47.42764746754335</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="I28" t="n">
-        <v>47.42764746754335</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="J28" t="n">
-        <v>47.42764746754335</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="K28" t="n">
-        <v>47.42764746754335</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="L28" t="n">
-        <v>47.42764746754335</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="M28" t="n">
-        <v>47.42764746754335</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="N28" t="n">
-        <v>47.42764746754335</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="O28" t="n">
-        <v>47.42764746754335</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="P28" t="n">
-        <v>47.42764746754335</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="Q28" t="n">
-        <v>47.42764746754335</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="R28" t="n">
-        <v>47.42764746754335</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="S28" t="n">
-        <v>47.42764746754335</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="T28" t="n">
-        <v>47.42764746754335</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="U28" t="n">
-        <v>47.42764746754335</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="V28" t="n">
-        <v>47.42764746754335</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="W28" t="n">
-        <v>47.42764746754335</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="X28" t="n">
-        <v>47.42764746754335</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="Y28" t="n">
-        <v>47.42764746754335</v>
+        <v>47.42764746754332</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>47.42764746754328</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="C29" t="n">
-        <v>47.42764746754328</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="D29" t="n">
-        <v>47.42764746754328</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="E29" t="n">
-        <v>47.42764746754328</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="F29" t="n">
-        <v>47.42764746754328</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="G29" t="n">
-        <v>47.42764746754328</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="H29" t="n">
-        <v>47.42764746754328</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29542,7 +29542,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.42764746754328</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="T29" t="n">
-        <v>47.42764746754328</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="U29" t="n">
-        <v>47.42764746754328</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="V29" t="n">
-        <v>47.42764746754328</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="W29" t="n">
-        <v>47.42764746754328</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="X29" t="n">
-        <v>47.42764746754328</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="Y29" t="n">
-        <v>47.42764746754328</v>
+        <v>47.42764746754332</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47.42764746754328</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="C31" t="n">
-        <v>47.42764746754328</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="D31" t="n">
-        <v>47.42764746754328</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="E31" t="n">
-        <v>47.42764746754328</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="F31" t="n">
-        <v>47.42764746754328</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="G31" t="n">
-        <v>47.42764746754328</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="H31" t="n">
-        <v>47.42764746754328</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="I31" t="n">
-        <v>47.42764746754328</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="J31" t="n">
-        <v>47.42764746754328</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="K31" t="n">
-        <v>47.42764746754328</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="L31" t="n">
-        <v>47.42764746754328</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="M31" t="n">
-        <v>47.42764746754328</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="N31" t="n">
-        <v>47.42764746754328</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="O31" t="n">
-        <v>47.42764746754328</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="P31" t="n">
-        <v>47.42764746754328</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="Q31" t="n">
-        <v>47.42764746754328</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="R31" t="n">
-        <v>47.42764746754328</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="S31" t="n">
-        <v>47.42764746754328</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="T31" t="n">
-        <v>47.42764746754328</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="U31" t="n">
-        <v>47.42764746754328</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="V31" t="n">
-        <v>47.42764746754328</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="W31" t="n">
-        <v>47.42764746754328</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="X31" t="n">
-        <v>47.42764746754328</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="Y31" t="n">
-        <v>47.42764746754328</v>
+        <v>47.42764746754332</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C32" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D32" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E32" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F32" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G32" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H32" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29776,7 +29776,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -29788,7 +29788,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>-1.307398633798584e-12</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T32" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U32" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V32" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W32" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X32" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y32" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="33">
@@ -29846,7 +29846,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.119104808822158e-12</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29904,28 +29904,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C34" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D34" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E34" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F34" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G34" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H34" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -29934,46 +29934,46 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>86.41330088048383</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="M34" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="N34" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="O34" t="n">
-        <v>97.68472022810501</v>
+        <v>76.32843350415931</v>
       </c>
       <c r="P34" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="S34" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T34" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U34" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V34" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W34" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X34" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-13</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="36">
@@ -30080,7 +30080,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -30116,7 +30116,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="L37" t="n">
-        <v>97.68472022810501</v>
+        <v>77.66073332242644</v>
       </c>
       <c r="M37" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="O37" t="n">
-        <v>86.41330088048375</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="39">
@@ -30317,7 +30317,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -30359,7 +30359,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="J40" t="n">
-        <v>97.68472022810501</v>
+        <v>76.32843350415955</v>
       </c>
       <c r="K40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="M40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="N40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="O40" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>86.41330088048352</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30487,13 +30487,13 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="42">
@@ -30554,7 +30554,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -30596,7 +30596,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="K43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="L43" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="P43" t="n">
-        <v>86.41330088048375</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Q43" t="n">
-        <v>97.68472022810502</v>
+        <v>86.41330088048412</v>
       </c>
       <c r="R43" t="n">
         <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="J46" t="n">
-        <v>86.41330088048186</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="N46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="O46" t="n">
-        <v>97.68472022810509</v>
+        <v>85.08100106221718</v>
       </c>
       <c r="P46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Q46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="R46" t="n">
         <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04457992776424126</v>
+        <v>0.04457992776423943</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4565541852155359</v>
+        <v>0.4565541852155172</v>
       </c>
       <c r="I8" t="n">
-        <v>1.718667665130913</v>
+        <v>1.718667665130842</v>
       </c>
       <c r="J8" t="n">
-        <v>3.783665644080275</v>
+        <v>3.78366564408012</v>
       </c>
       <c r="K8" t="n">
-        <v>5.670733986340609</v>
+        <v>5.670733986340376</v>
       </c>
       <c r="L8" t="n">
-        <v>7.035046950655508</v>
+        <v>7.03504695065522</v>
       </c>
       <c r="M8" t="n">
-        <v>7.827845241032834</v>
+        <v>7.827845241032513</v>
       </c>
       <c r="N8" t="n">
-        <v>7.954507960792985</v>
+        <v>7.954507960792658</v>
       </c>
       <c r="O8" t="n">
-        <v>7.51121630408731</v>
+        <v>7.511216304087002</v>
       </c>
       <c r="P8" t="n">
-        <v>6.410649337407603</v>
+        <v>6.410649337407341</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.814130674350712</v>
+        <v>4.814130674350515</v>
       </c>
       <c r="R8" t="n">
-        <v>2.800343887420523</v>
+        <v>2.800343887420408</v>
       </c>
       <c r="S8" t="n">
-        <v>1.015865103927649</v>
+        <v>1.015865103927607</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1951486337879662</v>
+        <v>0.1951486337879582</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0035663942211393</v>
+        <v>0.003566394221139154</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02385236418065043</v>
+        <v>0.02385236418064945</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2303636224815449</v>
+        <v>0.2303636224815355</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8212327141144994</v>
+        <v>0.8212327141144657</v>
       </c>
       <c r="J9" t="n">
-        <v>2.253525336909609</v>
+        <v>2.253525336909517</v>
       </c>
       <c r="K9" t="n">
-        <v>3.851633737013187</v>
+        <v>3.851633737013029</v>
       </c>
       <c r="L9" t="n">
-        <v>5.178996880539909</v>
+        <v>5.178996880539697</v>
       </c>
       <c r="M9" t="n">
-        <v>6.043645082088486</v>
+        <v>6.043645082088238</v>
       </c>
       <c r="N9" t="n">
-        <v>6.203602383984165</v>
+        <v>6.203602383983911</v>
       </c>
       <c r="O9" t="n">
-        <v>5.675084209244489</v>
+        <v>5.675084209244257</v>
       </c>
       <c r="P9" t="n">
-        <v>4.554755402180518</v>
+        <v>4.554755402180332</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.044733364533553</v>
+        <v>3.044733364533428</v>
       </c>
       <c r="R9" t="n">
-        <v>1.480938891847752</v>
+        <v>1.480938891847692</v>
       </c>
       <c r="S9" t="n">
-        <v>0.4430472030923442</v>
+        <v>0.443047203092326</v>
       </c>
       <c r="T9" t="n">
-        <v>0.09614176614920057</v>
+        <v>0.09614176614919663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001569234485569108</v>
+        <v>0.001569234485569043</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01999702087621397</v>
+        <v>0.01999702087621315</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1777916946994298</v>
+        <v>0.1777916946994225</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6013649550774167</v>
+        <v>0.6013649550773921</v>
       </c>
       <c r="J10" t="n">
-        <v>1.413789375948328</v>
+        <v>1.41378937594827</v>
       </c>
       <c r="K10" t="n">
-        <v>2.323290243618314</v>
+        <v>2.323290243618218</v>
       </c>
       <c r="L10" t="n">
-        <v>2.973011630996394</v>
+        <v>2.973011630996272</v>
       </c>
       <c r="M10" t="n">
-        <v>3.134623917895977</v>
+        <v>3.134623917895849</v>
       </c>
       <c r="N10" t="n">
-        <v>3.060089567357364</v>
+        <v>3.060089567357238</v>
       </c>
       <c r="O10" t="n">
-        <v>2.826488005303409</v>
+        <v>2.826488005303293</v>
       </c>
       <c r="P10" t="n">
-        <v>2.418548779428642</v>
+        <v>2.418548779428543</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.674477811734608</v>
+        <v>1.67447781173454</v>
       </c>
       <c r="R10" t="n">
-        <v>0.8991387750341298</v>
+        <v>0.8991387750340929</v>
       </c>
       <c r="S10" t="n">
-        <v>0.348493536542747</v>
+        <v>0.3484935365427327</v>
       </c>
       <c r="T10" t="n">
-        <v>0.08544181647109604</v>
+        <v>0.08544181647109253</v>
       </c>
       <c r="U10" t="n">
-        <v>0.001090746593248036</v>
+        <v>0.001090746593247991</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,37 +31829,37 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
@@ -31868,7 +31868,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31917,16 +31917,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
         <v>300.7247737883114</v>
@@ -31935,19 +31935,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780294</v>
@@ -32549,7 +32549,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32786,7 +32786,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -32795,7 +32795,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N24" t="n">
         <v>609.6478166837924</v>
@@ -33023,7 +33023,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34445,7 +34445,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165874</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K13" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M13" t="n">
         <v>394.6085160120763</v>
@@ -35580,13 +35580,13 @@
         <v>391.8320827861326</v>
       </c>
       <c r="O13" t="n">
-        <v>349.3282668412322</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P13" t="n">
         <v>281.9322077637029</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K16" t="n">
         <v>253.0227961629121</v>
@@ -35811,16 +35811,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M16" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N16" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O16" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P16" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3693751564862</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034286</v>
+        <v>106.3449593764788</v>
       </c>
       <c r="K19" t="n">
-        <v>156.5933308949319</v>
+        <v>193.7066772858029</v>
       </c>
       <c r="L19" t="n">
         <v>251.6854547147796</v>
       </c>
       <c r="M19" t="n">
-        <v>263.526502570174</v>
+        <v>220.9425247632151</v>
       </c>
       <c r="N19" t="n">
         <v>267.4420134092142</v>
       </c>
       <c r="O19" t="n">
-        <v>233.7142479428932</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P19" t="n">
         <v>194.3532919172052</v>
@@ -36063,7 +36063,7 @@
         <v>107.4540642462781</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>5.470631416088551</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597743</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>69.23161298560763</v>
+        <v>106.3449593764788</v>
       </c>
       <c r="K22" t="n">
         <v>193.7066772858029</v>
       </c>
       <c r="L22" t="n">
-        <v>251.6854547147796</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M22" t="n">
-        <v>169.1237184840381</v>
+        <v>263.526502570174</v>
       </c>
       <c r="N22" t="n">
-        <v>267.4420134092142</v>
+        <v>224.8580356022551</v>
       </c>
       <c r="O22" t="n">
         <v>233.7142479428932</v>
@@ -36300,7 +36300,7 @@
         <v>107.4540642462781</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.470631416088551</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923319</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597746</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36443,7 +36443,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N24" t="n">
         <v>478.3061046004591</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>11.94217529034286</v>
+        <v>106.3449593764788</v>
       </c>
       <c r="K25" t="n">
-        <v>156.5933308949319</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L25" t="n">
         <v>251.6854547147796</v>
@@ -36534,10 +36534,10 @@
         <v>194.3532919172052</v>
       </c>
       <c r="Q25" t="n">
-        <v>107.4540642462781</v>
+        <v>64.87008643931895</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.470631416088551</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597746</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36750,16 +36750,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>93.00606408060955</v>
+        <v>81.99879885495376</v>
       </c>
       <c r="K28" t="n">
-        <v>253.4753070118629</v>
+        <v>253.4753070118628</v>
       </c>
       <c r="L28" t="n">
         <v>367.1850196377414</v>
       </c>
       <c r="M28" t="n">
-        <v>384.0537616353706</v>
+        <v>395.0610268610271</v>
       </c>
       <c r="N28" t="n">
         <v>392.2845936350834</v>
@@ -36771,7 +36771,7 @@
         <v>282.3847186126537</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.821886005437</v>
+        <v>125.8218860054369</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302267</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129113</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>93.00606408060948</v>
+        <v>93.00606408060952</v>
       </c>
       <c r="K31" t="n">
         <v>253.4753070118628</v>
       </c>
       <c r="L31" t="n">
-        <v>367.1850196377413</v>
+        <v>367.1850196377414</v>
       </c>
       <c r="M31" t="n">
-        <v>395.0610268610271</v>
+        <v>384.0537616353714</v>
       </c>
       <c r="N31" t="n">
-        <v>392.2845936350833</v>
+        <v>392.2845936350834</v>
       </c>
       <c r="O31" t="n">
-        <v>349.780777690183</v>
+        <v>349.7807776901831</v>
       </c>
       <c r="P31" t="n">
-        <v>271.3774533869986</v>
+        <v>282.3847186126537</v>
       </c>
       <c r="Q31" t="n">
         <v>125.8218860054369</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193706</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37221,25 +37221,25 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1.332299818266897</v>
       </c>
       <c r="J34" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K34" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L34" t="n">
-        <v>243.6959715091275</v>
+        <v>254.9673908567487</v>
       </c>
       <c r="M34" t="n">
-        <v>266.8084387121431</v>
+        <v>266.8084387121432</v>
       </c>
       <c r="N34" t="n">
-        <v>270.7239495511832</v>
+        <v>270.7239495511833</v>
       </c>
       <c r="O34" t="n">
-        <v>236.9961840848623</v>
+        <v>215.6398973609166</v>
       </c>
       <c r="P34" t="n">
         <v>197.6352280591743</v>
@@ -37248,7 +37248,7 @@
         <v>110.7360003882472</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>8.752567558057663</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37461,31 +37461,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>109.6268955184479</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K37" t="n">
         <v>196.988613427772</v>
       </c>
       <c r="L37" t="n">
-        <v>254.9673908567486</v>
+        <v>234.9434039510701</v>
       </c>
       <c r="M37" t="n">
-        <v>266.8084387121431</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N37" t="n">
         <v>270.7239495511832</v>
       </c>
       <c r="O37" t="n">
-        <v>225.724764737241</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P37" t="n">
-        <v>99.95050783106927</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q37" t="n">
-        <v>13.05128016014217</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>8.752567558057649</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37695,16 +37695,16 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1.332299818266883</v>
       </c>
       <c r="J40" t="n">
-        <v>109.6268955184479</v>
+        <v>88.27060879450241</v>
       </c>
       <c r="K40" t="n">
         <v>196.988613427772</v>
       </c>
       <c r="L40" t="n">
-        <v>157.2826706286436</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M40" t="n">
         <v>266.8084387121431</v>
@@ -37713,16 +37713,16 @@
         <v>270.7239495511832</v>
       </c>
       <c r="O40" t="n">
-        <v>236.9961840848623</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P40" t="n">
-        <v>186.3638087115528</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q40" t="n">
         <v>13.05128016014217</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>8.752567558057649</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37783,13 +37783,13 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
         <v>508.053000888219</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11.94217529034286</v>
+        <v>109.6268955184479</v>
       </c>
       <c r="K43" t="n">
         <v>196.988613427772</v>
       </c>
       <c r="L43" t="n">
-        <v>254.9673908567487</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M43" t="n">
-        <v>266.8084387121431</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N43" t="n">
-        <v>270.7239495511833</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O43" t="n">
-        <v>139.3114638567573</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P43" t="n">
-        <v>186.363808711553</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q43" t="n">
-        <v>110.7360003882472</v>
+        <v>99.46458104062629</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597746</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
@@ -38169,31 +38169,31 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1.332299818266883</v>
       </c>
       <c r="J46" t="n">
-        <v>98.35547617082472</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K46" t="n">
-        <v>196.9886134277721</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L46" t="n">
         <v>157.2826706286436</v>
       </c>
       <c r="M46" t="n">
-        <v>169.1237184840381</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N46" t="n">
-        <v>270.7239495511834</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O46" t="n">
-        <v>236.9961840848624</v>
+        <v>224.3924649189744</v>
       </c>
       <c r="P46" t="n">
-        <v>197.6352280591744</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q46" t="n">
-        <v>110.7360003882473</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
